--- a/players_stats/Anthony Brown.xlsx
+++ b/players_stats/Anthony Brown.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,92 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>271</v>
+        <v>599</v>
       </c>
       <c r="K2" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L2" t="n">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="Q2" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="R2" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="S2" t="n">
-        <v>0.575</v>
+        <v>0.339</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.389</v>
       </c>
       <c r="U2" t="n">
+        <v>17</v>
+      </c>
+      <c r="V2" t="n">
+        <v>20</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="X2" t="n">
         <v>9</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>15</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>74</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>29</v>
-      </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 111 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -663,7 +663,9 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -674,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -692,90 +694,90 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>159</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>11</v>
+      </c>
+      <c r="R3" t="n">
+        <v>23</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z3" t="n">
         <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>286</v>
-      </c>
-      <c r="K3" t="n">
-        <v>39</v>
-      </c>
-      <c r="L3" t="n">
-        <v>78</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>39</v>
-      </c>
-      <c r="R3" t="n">
-        <v>78</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>22</v>
-      </c>
-      <c r="V3" t="n">
-        <v>49</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="X3" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>92</v>
       </c>
       <c r="AA3" t="n">
         <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 111 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -783,7 +785,9 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -794,15 +798,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -812,90 +816,90 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>143</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
         <v>41</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.143</v>
+        <v>0.341</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.25</v>
+      </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
-        <v>0.143</v>
+        <v>0.471</v>
       </c>
       <c r="T4" t="n">
-        <v>0.143</v>
+        <v>0.415</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB4" t="n">
         <v>5</v>
       </c>
-      <c r="Z4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1</v>
-      </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 206</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 111 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -903,7 +907,9 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -914,112 +920,356 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>598</v>
-      </c>
-      <c r="K5" t="n">
-        <v>82</v>
-      </c>
-      <c r="L5" t="n">
-        <v>159</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>82</v>
-      </c>
-      <c r="R5" t="n">
-        <v>158</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="U5" t="n">
-        <v>33</v>
-      </c>
-      <c r="V5" t="n">
-        <v>66</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>178</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>41</v>
+      </c>
+      <c r="I7" t="n">
         <v>11</v>
       </c>
-      <c r="AB5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>73</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>197</v>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 206</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 111 </t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="J7" t="n">
+        <v>762</v>
+      </c>
+      <c r="K7" t="n">
+        <v>58</v>
+      </c>
+      <c r="L7" t="n">
+        <v>177</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="N7" t="n">
+        <v>28</v>
+      </c>
+      <c r="O7" t="n">
+        <v>98</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>30</v>
+      </c>
+      <c r="R7" t="n">
+        <v>79</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="U7" t="n">
+        <v>17</v>
+      </c>
+      <c r="V7" t="n">
+        <v>20</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>86</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>161</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
